--- a/data/Shelter_area.xlsx
+++ b/data/Shelter_area.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nam Sohyun\PycharmProjects\KSOE-Layout\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC9FD9A1-7096-4BE9-B046-661E30AC265A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA9F96EC-7C0C-4E4E-A267-A587468966AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-18735" yWindow="2940" windowWidth="17280" windowHeight="8970" xr2:uid="{25FC49F9-1F46-4A3F-99B2-3051C7E8703D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{25FC49F9-1F46-4A3F-99B2-3051C7E8703D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Shelter</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -80,11 +80,134 @@
     <t>대조립쉘터</t>
   </si>
   <si>
+    <t>중조립SHOP쉘터</t>
+  </si>
+  <si>
+    <r>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>도크PE</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>도크</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PE</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>도크</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PE</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>도크</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PE</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>도크</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PE</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>대조립5부쉘터</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>총조립SHOP쉘터</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -92,7 +215,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -107,6 +230,19 @@
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="2">
@@ -131,12 +267,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -451,10 +586,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E76272E-3C85-41B2-A468-A750F15261DE}">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -474,7 +609,7 @@
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="1">
         <v>3999.94860853</v>
       </c>
     </row>
@@ -482,7 +617,7 @@
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="1">
         <v>12022.671393799999</v>
       </c>
     </row>
@@ -490,7 +625,7 @@
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="1">
         <v>2132.96825545</v>
       </c>
     </row>
@@ -498,7 +633,7 @@
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="1">
         <v>2311.9770413400001</v>
       </c>
     </row>
@@ -506,15 +641,15 @@
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="1">
         <v>2322.9365002499999</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="2">
+        <v>14</v>
+      </c>
+      <c r="B7" s="1">
         <v>2115.9870744099999</v>
       </c>
     </row>
@@ -522,7 +657,7 @@
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="1">
         <v>2115.9862752600002</v>
       </c>
     </row>
@@ -530,7 +665,7 @@
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="1">
         <v>4499.9691187099997</v>
       </c>
     </row>
@@ -538,7 +673,7 @@
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="1">
         <v>14599.0335005</v>
       </c>
     </row>
@@ -546,7 +681,7 @@
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="1">
         <v>4049.9623977800002</v>
       </c>
     </row>
@@ -554,7 +689,7 @@
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="1">
         <v>3194.8674692599998</v>
       </c>
     </row>
@@ -562,15 +697,15 @@
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="1">
         <v>2099.9827546900001</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="2">
+        <v>20</v>
+      </c>
+      <c r="B14" s="1">
         <v>4231.9720337999997</v>
       </c>
     </row>
@@ -578,8 +713,48 @@
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="1">
         <v>5757.9462875999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1">
+        <v>22267.497808001201</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1">
+        <v>23853.388062006801</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1">
+        <v>27007.5816158341</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1">
+        <v>15136.673513419</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1">
+        <v>40818.437525277201</v>
       </c>
     </row>
   </sheetData>
